--- a/Raj Chudasama/2022-12-20/Hampton Trophy Club/remaining arrivals 12-20-22.xlsx
+++ b/Raj Chudasama/2022-12-20/Hampton Trophy Club/remaining arrivals 12-20-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Guest Name</t>
   </si>
@@ -34,49 +34,46 @@
     <t>Arrival Date</t>
   </si>
   <si>
-    <t>Depart Date</t>
-  </si>
-  <si>
     <t>Room Type</t>
   </si>
   <si>
-    <t>HUMPERT/SCOTT</t>
-  </si>
-  <si>
-    <t>KING/ZACHARY</t>
-  </si>
-  <si>
-    <t>Mongan/Richard</t>
-  </si>
-  <si>
-    <t>Paoli/Ryan</t>
-  </si>
-  <si>
-    <t>Rothery/Pamela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D </t>
-  </si>
-  <si>
-    <t xml:space="preserve">G </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S </t>
-  </si>
-  <si>
-    <t>THE BLACKSTONE GROUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$90.80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$116.28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$129.40 </t>
+    <t xml:space="preserve">HUMPERT/SCOTT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KING/ZACHARY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongan/Richard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paoli/Ryan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothery/Pamela </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE BLACKSTONE GROUP </t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>$90.80</t>
+  </si>
+  <si>
+    <t>$116.28</t>
+  </si>
+  <si>
+    <t>$129.40</t>
   </si>
   <si>
     <t>L-SRR</t>
@@ -91,7 +88,7 @@
     <t>L-H1P</t>
   </si>
   <si>
-    <t>12/20/2022</t>
+    <t>12/22/2022</t>
   </si>
   <si>
     <t>NKRU</t>
@@ -461,113 +458,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -576,39 +561,33 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
